--- a/Mifos Automation Excels/Client/2363-RBI-EPP-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-BLR-OnTime-CASH-Newcreateloan1.xlsx
+++ b/Mifos Automation Excels/Client/2363-RBI-EPP-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-BLR-OnTime-CASH-Newcreateloan1.xlsx
@@ -4,21 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="5" r:id="rId1"/>
     <sheet name="Summary" sheetId="3" r:id="rId2"/>
     <sheet name="Repayment schedule" sheetId="1" r:id="rId3"/>
     <sheet name="Transactions" sheetId="4" r:id="rId4"/>
-    <sheet name="Floating Interest Rates" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
   <si>
     <t>#</t>
   </si>
@@ -170,12 +169,6 @@
     <t>disburseloan</t>
   </si>
   <si>
-    <t>From Date</t>
-  </si>
-  <si>
-    <t>Interest Rate</t>
-  </si>
-  <si>
     <t>Interestratedifferential</t>
   </si>
   <si>
@@ -197,14 +190,14 @@
     <t>principal1</t>
   </si>
   <si>
-    <t>2363-RBI-EPP-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-BLR-OnTime-CASH</t>
+    <t>2363-RBI-EPP-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-BLR-ONTIME-CASH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,14 +222,6 @@
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -322,7 +307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -363,15 +348,14 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -675,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,8 +681,8 @@
       <c r="A2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>59</v>
+      <c r="B2" s="10" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -718,19 +702,19 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>52</v>
-      </c>
-      <c r="B5" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -761,21 +745,21 @@
       <c r="A10" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="22">
+      <c r="B10" s="20">
         <v>5000</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B12" s="10">
         <v>42064</v>
@@ -783,9 +767,9 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="22">
+        <v>56</v>
+      </c>
+      <c r="B13" s="20">
         <v>5000</v>
       </c>
     </row>
@@ -853,10 +837,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D4" sqref="A1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -892,7 +876,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="B2" s="14">
         <v>0</v>
@@ -902,16 +886,16 @@
         <v>0</v>
       </c>
       <c r="E2" s="16">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="F2" s="17">
-        <v>1622.5</v>
+        <v>1666.67</v>
       </c>
       <c r="G2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
-        <v>477.55</v>
+      <c r="A3" s="21">
+        <v>74.25</v>
       </c>
       <c r="B3" s="14">
         <v>0</v>
@@ -922,11 +906,11 @@
       <c r="D3" s="14">
         <v>0</v>
       </c>
-      <c r="E3" s="14">
-        <v>477.55</v>
-      </c>
-      <c r="F3" s="14">
-        <v>80</v>
+      <c r="E3" s="21">
+        <v>74.25</v>
+      </c>
+      <c r="F3" s="21">
+        <v>28.08</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -968,6 +952,38 @@
       <c r="F5" s="14">
         <v>0</v>
       </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="16"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="17"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -976,10 +992,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -991,7 +1007,7 @@
     <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
@@ -1060,11 +1076,11 @@
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="16">
-        <v>10000</v>
-      </c>
-      <c r="H2" s="14"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21">
+        <v>5000</v>
+      </c>
+      <c r="H2" s="21"/>
       <c r="I2" s="14">
         <v>0</v>
       </c>
@@ -1078,6 +1094,7 @@
       <c r="M2" s="14"/>
       <c r="N2" s="14"/>
       <c r="O2" s="14"/>
+      <c r="P2" s="21"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
@@ -1091,14 +1108,14 @@
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="14">
-        <v>817.28</v>
-      </c>
-      <c r="G3" s="17">
-        <v>9182.7199999999993</v>
-      </c>
-      <c r="H3" s="14">
-        <v>33.97</v>
+      <c r="F3" s="21">
+        <v>833.33</v>
+      </c>
+      <c r="G3" s="21">
+        <v>4166.67</v>
+      </c>
+      <c r="H3" s="21">
+        <v>12.74</v>
       </c>
       <c r="I3" s="14">
         <v>0</v>
@@ -1106,8 +1123,8 @@
       <c r="J3" s="14">
         <v>0</v>
       </c>
-      <c r="K3" s="14">
-        <v>851.25</v>
+      <c r="K3" s="21">
+        <v>846.07</v>
       </c>
       <c r="L3" s="14">
         <v>0</v>
@@ -1118,39 +1135,40 @@
       <c r="N3" s="14">
         <v>0</v>
       </c>
-      <c r="P3" s="14">
-        <v>851.25</v>
+      <c r="O3" s="14">
+        <v>0</v>
+      </c>
+      <c r="P3" s="21">
+        <v>846.07</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="14">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4">
         <v>28</v>
       </c>
       <c r="C4" s="15">
         <v>42064</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14">
-        <v>805.22</v>
-      </c>
-      <c r="G4" s="17">
-        <v>8377.5</v>
-      </c>
-      <c r="H4" s="14">
-        <v>46.03</v>
-      </c>
-      <c r="I4" s="14">
-        <v>0</v>
-      </c>
-      <c r="J4" s="14">
-        <v>0</v>
-      </c>
-      <c r="K4" s="14">
-        <v>851.25</v>
+      <c r="F4" s="21">
+        <v>833.33</v>
+      </c>
+      <c r="G4" s="21">
+        <v>3333.33</v>
+      </c>
+      <c r="H4" s="21">
+        <v>15.34</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="21">
+        <v>848.68</v>
       </c>
       <c r="L4" s="14">
         <v>0</v>
@@ -1161,39 +1179,40 @@
       <c r="N4" s="14">
         <v>0</v>
       </c>
-      <c r="P4" s="14">
-        <v>851.25</v>
+      <c r="O4" s="14">
+        <v>0</v>
+      </c>
+      <c r="P4" s="21">
+        <v>848.68</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="14">
+      <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5">
         <v>31</v>
       </c>
       <c r="C5" s="15">
         <v>42095</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14">
-        <v>783.3</v>
-      </c>
-      <c r="G5" s="17">
-        <v>7594.2</v>
-      </c>
-      <c r="H5" s="14">
-        <v>67.95</v>
-      </c>
-      <c r="I5" s="14">
-        <v>0</v>
-      </c>
-      <c r="J5" s="14">
-        <v>0</v>
-      </c>
-      <c r="K5" s="14">
-        <v>851.25</v>
+      <c r="F5" s="21">
+        <v>833.33</v>
+      </c>
+      <c r="G5" s="21">
+        <v>2500</v>
+      </c>
+      <c r="H5" s="21">
+        <v>21.23</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="21">
+        <v>854.57</v>
       </c>
       <c r="L5" s="14">
         <v>0</v>
@@ -1204,39 +1223,40 @@
       <c r="N5" s="14">
         <v>0</v>
       </c>
-      <c r="P5" s="14">
-        <v>851.25</v>
+      <c r="O5" s="14">
+        <v>0</v>
+      </c>
+      <c r="P5" s="21">
+        <v>854.57</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
+      <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6">
         <v>30</v>
       </c>
       <c r="C6" s="15">
         <v>42125</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14">
-        <v>788.83</v>
-      </c>
-      <c r="G6" s="17">
-        <v>6805.37</v>
-      </c>
-      <c r="H6" s="14">
-        <v>62.42</v>
-      </c>
-      <c r="I6" s="14">
-        <v>0</v>
-      </c>
-      <c r="J6" s="14">
-        <v>0</v>
-      </c>
-      <c r="K6" s="14">
-        <v>851.25</v>
+      <c r="F6" s="21">
+        <v>833.33</v>
+      </c>
+      <c r="G6" s="21">
+        <v>1666.67</v>
+      </c>
+      <c r="H6" s="21">
+        <v>12.33</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="21">
+        <v>845.66</v>
       </c>
       <c r="L6" s="14">
         <v>0</v>
@@ -1247,39 +1267,40 @@
       <c r="N6" s="14">
         <v>0</v>
       </c>
-      <c r="P6" s="14">
-        <v>851.25</v>
+      <c r="O6" s="14">
+        <v>0</v>
+      </c>
+      <c r="P6" s="21">
+        <v>845.66</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
+      <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7">
         <v>31</v>
       </c>
       <c r="C7" s="15">
         <v>42156</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14">
-        <v>793.45</v>
-      </c>
-      <c r="G7" s="17">
-        <v>6011.92</v>
-      </c>
-      <c r="H7" s="14">
-        <v>57.8</v>
-      </c>
-      <c r="I7" s="14">
-        <v>0</v>
-      </c>
-      <c r="J7" s="14">
-        <v>0</v>
-      </c>
-      <c r="K7" s="14">
-        <v>851.25</v>
+      <c r="F7" s="21">
+        <v>833.33</v>
+      </c>
+      <c r="G7" s="21">
+        <v>833.33</v>
+      </c>
+      <c r="H7" s="21">
+        <v>8.49</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="21">
+        <v>841.83</v>
       </c>
       <c r="L7" s="14">
         <v>0</v>
@@ -1290,39 +1311,40 @@
       <c r="N7" s="14">
         <v>0</v>
       </c>
-      <c r="P7" s="14">
-        <v>851.25</v>
+      <c r="O7" s="14">
+        <v>0</v>
+      </c>
+      <c r="P7" s="21">
+        <v>841.83</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
+      <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8">
         <v>30</v>
       </c>
       <c r="C8" s="15">
         <v>42186</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14">
-        <v>801.84</v>
-      </c>
-      <c r="G8" s="17">
-        <v>5210.08</v>
-      </c>
-      <c r="H8" s="14">
-        <v>49.41</v>
-      </c>
-      <c r="I8" s="14">
-        <v>0</v>
-      </c>
-      <c r="J8" s="14">
-        <v>0</v>
-      </c>
-      <c r="K8" s="14">
-        <v>851.25</v>
+      <c r="F8" s="21">
+        <v>833.33</v>
+      </c>
+      <c r="G8" s="21">
+        <v>0</v>
+      </c>
+      <c r="H8" s="21">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" s="21">
+        <v>837.44</v>
       </c>
       <c r="L8" s="14">
         <v>0</v>
@@ -1333,266 +1355,11 @@
       <c r="N8" s="14">
         <v>0</v>
       </c>
-      <c r="P8" s="14">
-        <v>851.25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
-        <v>7</v>
-      </c>
-      <c r="B9" s="14">
-        <v>31</v>
-      </c>
-      <c r="C9" s="15">
-        <v>42217</v>
-      </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14">
-        <v>807</v>
-      </c>
-      <c r="G9" s="17">
-        <v>4403.08</v>
-      </c>
-      <c r="H9" s="14">
-        <v>44.25</v>
-      </c>
-      <c r="I9" s="14">
-        <v>0</v>
-      </c>
-      <c r="J9" s="14">
-        <v>0</v>
-      </c>
-      <c r="K9" s="14">
-        <v>851.25</v>
-      </c>
-      <c r="L9" s="14">
-        <v>0</v>
-      </c>
-      <c r="M9" s="14">
-        <v>0</v>
-      </c>
-      <c r="N9" s="14">
-        <v>0</v>
-      </c>
-      <c r="P9" s="14">
-        <v>851.25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
-        <v>8</v>
-      </c>
-      <c r="B10" s="14">
-        <v>31</v>
-      </c>
-      <c r="C10" s="15">
-        <v>42248</v>
-      </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14">
-        <v>813.85</v>
-      </c>
-      <c r="G10" s="17">
-        <v>3589.23</v>
-      </c>
-      <c r="H10" s="14">
-        <v>37.4</v>
-      </c>
-      <c r="I10" s="14">
-        <v>0</v>
-      </c>
-      <c r="J10" s="14">
-        <v>0</v>
-      </c>
-      <c r="K10" s="14">
-        <v>851.25</v>
-      </c>
-      <c r="L10" s="14">
-        <v>0</v>
-      </c>
-      <c r="M10" s="14">
-        <v>0</v>
-      </c>
-      <c r="N10" s="14">
-        <v>0</v>
-      </c>
-      <c r="P10" s="14">
-        <v>851.25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="14">
-        <v>9</v>
-      </c>
-      <c r="B11" s="14">
-        <v>30</v>
-      </c>
-      <c r="C11" s="15">
-        <v>42278</v>
-      </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14">
-        <v>821.75</v>
-      </c>
-      <c r="G11" s="17">
-        <v>2767.48</v>
-      </c>
-      <c r="H11" s="14">
-        <v>29.5</v>
-      </c>
-      <c r="I11" s="14">
-        <v>0</v>
-      </c>
-      <c r="J11" s="14">
-        <v>0</v>
-      </c>
-      <c r="K11" s="14">
-        <v>851.25</v>
-      </c>
-      <c r="L11" s="14">
-        <v>0</v>
-      </c>
-      <c r="M11" s="14">
-        <v>0</v>
-      </c>
-      <c r="N11" s="14">
-        <v>0</v>
-      </c>
-      <c r="P11" s="14">
-        <v>851.25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="14">
-        <v>10</v>
-      </c>
-      <c r="B12" s="14">
-        <v>31</v>
-      </c>
-      <c r="C12" s="15">
-        <v>42309</v>
-      </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14">
-        <v>827.75</v>
-      </c>
-      <c r="G12" s="17">
-        <v>1939.73</v>
-      </c>
-      <c r="H12" s="14">
-        <v>23.5</v>
-      </c>
-      <c r="I12" s="14">
-        <v>0</v>
-      </c>
-      <c r="J12" s="14">
-        <v>0</v>
-      </c>
-      <c r="K12" s="14">
-        <v>851.25</v>
-      </c>
-      <c r="L12" s="14">
-        <v>0</v>
-      </c>
-      <c r="M12" s="14">
-        <v>0</v>
-      </c>
-      <c r="N12" s="14">
-        <v>0</v>
-      </c>
-      <c r="P12" s="14">
-        <v>851.25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="14">
-        <v>11</v>
-      </c>
-      <c r="B13" s="14">
-        <v>30</v>
-      </c>
-      <c r="C13" s="15">
-        <v>42339</v>
-      </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14">
-        <v>835.31</v>
-      </c>
-      <c r="G13" s="17">
-        <v>1104.42</v>
-      </c>
-      <c r="H13" s="14">
-        <v>15.94</v>
-      </c>
-      <c r="I13" s="14">
-        <v>0</v>
-      </c>
-      <c r="J13" s="14">
-        <v>0</v>
-      </c>
-      <c r="K13" s="14">
-        <v>851.25</v>
-      </c>
-      <c r="L13" s="14">
-        <v>0</v>
-      </c>
-      <c r="M13" s="14">
-        <v>0</v>
-      </c>
-      <c r="N13" s="14">
-        <v>0</v>
-      </c>
-      <c r="P13" s="14">
-        <v>851.25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="14">
-        <v>12</v>
-      </c>
-      <c r="B14" s="14">
-        <v>31</v>
-      </c>
-      <c r="C14" s="15">
-        <v>42370</v>
-      </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="17">
-        <v>1104.42</v>
-      </c>
-      <c r="G14" s="14">
-        <v>0</v>
-      </c>
-      <c r="H14" s="14">
-        <v>9.3800000000000008</v>
-      </c>
-      <c r="I14" s="14">
-        <v>0</v>
-      </c>
-      <c r="J14" s="14">
-        <v>0</v>
-      </c>
-      <c r="K14" s="17">
-        <v>1113.8</v>
-      </c>
-      <c r="L14" s="14">
-        <v>0</v>
-      </c>
-      <c r="M14" s="14">
-        <v>0</v>
-      </c>
-      <c r="N14" s="14">
-        <v>0</v>
-      </c>
-      <c r="P14" s="17">
-        <v>1113.8</v>
+      <c r="O8" s="14">
+        <v>0</v>
+      </c>
+      <c r="P8" s="21">
+        <v>837.44</v>
       </c>
     </row>
   </sheetData>
@@ -1606,7 +1373,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1670,7 +1437,7 @@
         <v>15</v>
       </c>
       <c r="E2" s="7">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="F2" s="4">
         <v>0</v>
@@ -1685,74 +1452,10 @@
         <v>0</v>
       </c>
       <c r="J2" s="7">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
-        <v>42186</v>
-      </c>
-      <c r="B3" s="14">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
-        <v>42156</v>
-      </c>
-      <c r="B4" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
-        <v>42125</v>
-      </c>
-      <c r="B5" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
-        <v>42096</v>
-      </c>
-      <c r="B6" s="14">
-        <v>3</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Mifos Automation Excels/Client/2363-RBI-EPP-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-BLR-OnTime-CASH-Newcreateloan1.xlsx
+++ b/Mifos Automation Excels/Client/2363-RBI-EPP-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-BLR-OnTime-CASH-Newcreateloan1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="5" r:id="rId1"/>
@@ -307,7 +307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -353,9 +353,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -837,10 +834,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="A1:F5"/>
+      <selection activeCell="A7" sqref="A7:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -889,13 +886,13 @@
         <v>5000</v>
       </c>
       <c r="F2" s="17">
-        <v>1666.67</v>
+        <v>1666.66</v>
       </c>
       <c r="G2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="21">
-        <v>74.25</v>
+      <c r="A3" s="14">
+        <v>74.239999999999995</v>
       </c>
       <c r="B3" s="14">
         <v>0</v>
@@ -906,10 +903,10 @@
       <c r="D3" s="14">
         <v>0</v>
       </c>
-      <c r="E3" s="21">
-        <v>74.25</v>
-      </c>
-      <c r="F3" s="21">
+      <c r="E3" s="14">
+        <v>74.239999999999995</v>
+      </c>
+      <c r="F3" s="14">
         <v>28.08</v>
       </c>
     </row>
@@ -952,38 +949,6 @@
       <c r="F5" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="17"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -992,10 +957,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1076,11 +1041,11 @@
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21">
+      <c r="F2" s="14"/>
+      <c r="G2" s="16">
         <v>5000</v>
       </c>
-      <c r="H2" s="21"/>
+      <c r="H2" s="14"/>
       <c r="I2" s="14">
         <v>0</v>
       </c>
@@ -1094,7 +1059,7 @@
       <c r="M2" s="14"/>
       <c r="N2" s="14"/>
       <c r="O2" s="14"/>
-      <c r="P2" s="21"/>
+      <c r="P2" s="14"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
@@ -1108,13 +1073,13 @@
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="21">
+      <c r="F3" s="14">
         <v>833.33</v>
       </c>
-      <c r="G3" s="21">
+      <c r="G3" s="17">
         <v>4166.67</v>
       </c>
-      <c r="H3" s="21">
+      <c r="H3" s="14">
         <v>12.74</v>
       </c>
       <c r="I3" s="14">
@@ -1123,7 +1088,7 @@
       <c r="J3" s="14">
         <v>0</v>
       </c>
-      <c r="K3" s="21">
+      <c r="K3" s="14">
         <v>846.07</v>
       </c>
       <c r="L3" s="14">
@@ -1138,37 +1103,39 @@
       <c r="O3" s="14">
         <v>0</v>
       </c>
-      <c r="P3" s="21">
+      <c r="P3" s="14">
         <v>846.07</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="14">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="14">
         <v>28</v>
       </c>
       <c r="C4" s="15">
         <v>42064</v>
       </c>
-      <c r="F4" s="21">
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14">
         <v>833.33</v>
       </c>
-      <c r="G4" s="21">
-        <v>3333.33</v>
-      </c>
-      <c r="H4" s="21">
+      <c r="G4" s="17">
+        <v>3333.34</v>
+      </c>
+      <c r="H4" s="14">
         <v>15.34</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4" s="21">
-        <v>848.68</v>
+      <c r="I4" s="14">
+        <v>0</v>
+      </c>
+      <c r="J4" s="14">
+        <v>0</v>
+      </c>
+      <c r="K4" s="14">
+        <v>848.67</v>
       </c>
       <c r="L4" s="14">
         <v>0</v>
@@ -1182,37 +1149,39 @@
       <c r="O4" s="14">
         <v>0</v>
       </c>
-      <c r="P4" s="21">
-        <v>848.68</v>
+      <c r="P4" s="14">
+        <v>848.67</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="14">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="14">
         <v>31</v>
       </c>
       <c r="C5" s="15">
         <v>42095</v>
       </c>
-      <c r="F5" s="21">
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14">
         <v>833.33</v>
       </c>
-      <c r="G5" s="21">
-        <v>2500</v>
-      </c>
-      <c r="H5" s="21">
+      <c r="G5" s="17">
+        <v>2500.0100000000002</v>
+      </c>
+      <c r="H5" s="14">
         <v>21.23</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5" s="21">
-        <v>854.57</v>
+      <c r="I5" s="14">
+        <v>0</v>
+      </c>
+      <c r="J5" s="14">
+        <v>0</v>
+      </c>
+      <c r="K5" s="14">
+        <v>854.56</v>
       </c>
       <c r="L5" s="14">
         <v>0</v>
@@ -1226,36 +1195,38 @@
       <c r="O5" s="14">
         <v>0</v>
       </c>
-      <c r="P5" s="21">
-        <v>854.57</v>
+      <c r="P5" s="14">
+        <v>854.56</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="14">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="14">
         <v>30</v>
       </c>
       <c r="C6" s="15">
         <v>42125</v>
       </c>
-      <c r="F6" s="21">
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14">
         <v>833.33</v>
       </c>
-      <c r="G6" s="21">
-        <v>1666.67</v>
-      </c>
-      <c r="H6" s="21">
+      <c r="G6" s="17">
+        <v>1666.68</v>
+      </c>
+      <c r="H6" s="14">
         <v>12.33</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6" s="21">
+      <c r="I6" s="14">
+        <v>0</v>
+      </c>
+      <c r="J6" s="14">
+        <v>0</v>
+      </c>
+      <c r="K6" s="14">
         <v>845.66</v>
       </c>
       <c r="L6" s="14">
@@ -1270,37 +1241,39 @@
       <c r="O6" s="14">
         <v>0</v>
       </c>
-      <c r="P6" s="21">
+      <c r="P6" s="14">
         <v>845.66</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="14">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="14">
         <v>31</v>
       </c>
       <c r="C7" s="15">
         <v>42156</v>
       </c>
-      <c r="F7" s="21">
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14">
         <v>833.33</v>
       </c>
-      <c r="G7" s="21">
-        <v>833.33</v>
-      </c>
-      <c r="H7" s="21">
+      <c r="G7" s="14">
+        <v>833.35</v>
+      </c>
+      <c r="H7" s="14">
         <v>8.49</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7" s="21">
-        <v>841.83</v>
+      <c r="I7" s="14">
+        <v>0</v>
+      </c>
+      <c r="J7" s="14">
+        <v>0</v>
+      </c>
+      <c r="K7" s="14">
+        <v>841.82</v>
       </c>
       <c r="L7" s="14">
         <v>0</v>
@@ -1314,36 +1287,38 @@
       <c r="O7" s="14">
         <v>0</v>
       </c>
-      <c r="P7" s="21">
-        <v>841.83</v>
+      <c r="P7" s="14">
+        <v>841.82</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="14">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="14">
         <v>30</v>
       </c>
       <c r="C8" s="15">
         <v>42186</v>
       </c>
-      <c r="F8" s="21">
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14">
         <v>833.33</v>
       </c>
-      <c r="G8" s="21">
-        <v>0</v>
-      </c>
-      <c r="H8" s="21">
+      <c r="G8" s="14">
+        <v>0.02</v>
+      </c>
+      <c r="H8" s="14">
         <v>4.1100000000000003</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8" s="21">
+      <c r="I8" s="14">
+        <v>0</v>
+      </c>
+      <c r="J8" s="14">
+        <v>0</v>
+      </c>
+      <c r="K8" s="14">
         <v>837.44</v>
       </c>
       <c r="L8" s="14">
@@ -1358,8 +1333,54 @@
       <c r="O8" s="14">
         <v>0</v>
       </c>
-      <c r="P8" s="21">
+      <c r="P8" s="14">
         <v>837.44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
+        <v>7</v>
+      </c>
+      <c r="B9" s="14">
+        <v>31</v>
+      </c>
+      <c r="C9" s="15">
+        <v>42217</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14">
+        <v>0.02</v>
+      </c>
+      <c r="G9" s="14">
+        <v>0</v>
+      </c>
+      <c r="H9" s="14">
+        <v>0</v>
+      </c>
+      <c r="I9" s="14">
+        <v>0</v>
+      </c>
+      <c r="J9" s="14">
+        <v>0</v>
+      </c>
+      <c r="K9" s="14">
+        <v>0.02</v>
+      </c>
+      <c r="L9" s="14">
+        <v>0</v>
+      </c>
+      <c r="M9" s="14">
+        <v>0</v>
+      </c>
+      <c r="N9" s="14">
+        <v>0</v>
+      </c>
+      <c r="O9" s="14">
+        <v>0</v>
+      </c>
+      <c r="P9" s="14">
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>
@@ -1372,7 +1393,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>

--- a/Mifos Automation Excels/Client/2363-RBI-EPP-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-BLR-OnTime-CASH-Newcreateloan1.xlsx
+++ b/Mifos Automation Excels/Client/2363-RBI-EPP-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-BLR-OnTime-CASH-Newcreateloan1.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="5" r:id="rId1"/>
@@ -196,7 +201,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -363,6 +368,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -410,7 +418,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -443,9 +451,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -478,6 +503,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -957,10 +999,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -978,12 +1020,13 @@
     <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1023,17 +1066,18 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
       <c r="B2" s="14"/>
       <c r="C2" s="15">
@@ -1060,8 +1104,9 @@
       <c r="N2" s="14"/>
       <c r="O2" s="14"/>
       <c r="P2" s="14"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q2" s="14"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>1</v>
       </c>
@@ -1097,17 +1142,18 @@
       <c r="M3" s="14">
         <v>0</v>
       </c>
-      <c r="N3" s="14">
-        <v>0</v>
-      </c>
+      <c r="N3" s="14"/>
       <c r="O3" s="14">
         <v>0</v>
       </c>
       <c r="P3" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="14">
         <v>846.07</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>2</v>
       </c>
@@ -1143,17 +1189,18 @@
       <c r="M4" s="14">
         <v>0</v>
       </c>
-      <c r="N4" s="14">
-        <v>0</v>
-      </c>
+      <c r="N4" s="14"/>
       <c r="O4" s="14">
         <v>0</v>
       </c>
       <c r="P4" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="14">
         <v>848.67</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>3</v>
       </c>
@@ -1189,17 +1236,18 @@
       <c r="M5" s="14">
         <v>0</v>
       </c>
-      <c r="N5" s="14">
-        <v>0</v>
-      </c>
+      <c r="N5" s="14"/>
       <c r="O5" s="14">
         <v>0</v>
       </c>
       <c r="P5" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="14">
         <v>854.56</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>4</v>
       </c>
@@ -1235,17 +1283,18 @@
       <c r="M6" s="14">
         <v>0</v>
       </c>
-      <c r="N6" s="14">
-        <v>0</v>
-      </c>
+      <c r="N6" s="14"/>
       <c r="O6" s="14">
         <v>0</v>
       </c>
       <c r="P6" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="14">
         <v>845.66</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>5</v>
       </c>
@@ -1281,17 +1330,18 @@
       <c r="M7" s="14">
         <v>0</v>
       </c>
-      <c r="N7" s="14">
-        <v>0</v>
-      </c>
+      <c r="N7" s="14"/>
       <c r="O7" s="14">
         <v>0</v>
       </c>
       <c r="P7" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="14">
         <v>841.82</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>6</v>
       </c>
@@ -1327,17 +1377,18 @@
       <c r="M8" s="14">
         <v>0</v>
       </c>
-      <c r="N8" s="14">
-        <v>0</v>
-      </c>
+      <c r="N8" s="14"/>
       <c r="O8" s="14">
         <v>0</v>
       </c>
       <c r="P8" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="14">
         <v>837.44</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>7</v>
       </c>
@@ -1373,13 +1424,14 @@
       <c r="M9" s="14">
         <v>0</v>
       </c>
-      <c r="N9" s="14">
-        <v>0</v>
-      </c>
+      <c r="N9" s="14"/>
       <c r="O9" s="14">
         <v>0</v>
       </c>
       <c r="P9" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="14">
         <v>0.02</v>
       </c>
     </row>
@@ -1393,7 +1445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
